--- a/RegularTable/bind.20230419174818516.xlsx
+++ b/RegularTable/bind.20230419174818516.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="789" firstSheet="6" activeTab="14"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="789" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,24 @@
     <sheet name="P2PSpeed_HB3" sheetId="16" r:id="rId14"/>
     <sheet name="record_HB3" sheetId="17" r:id="rId15"/>
     <sheet name="record_time" sheetId="18" r:id="rId16"/>
+    <sheet name="OTA_ERROR_HB2" sheetId="19" r:id="rId17"/>
+    <sheet name="OTA_HB2" sheetId="20" r:id="rId18"/>
+    <sheet name="DEV_CmdBypass" sheetId="21" r:id="rId19"/>
+    <sheet name="HB3_StartStream" sheetId="22" r:id="rId20"/>
+    <sheet name="doorsensor" sheetId="23" r:id="rId21"/>
+    <sheet name="face_recognition" sheetId="24" r:id="rId22"/>
+    <sheet name="WIFI_HEARTBEAT_NEW_HB3" sheetId="25" r:id="rId23"/>
+    <sheet name="record_vali" sheetId="26" r:id="rId24"/>
+    <sheet name="record_time_HB3" sheetId="27" r:id="rId25"/>
+    <sheet name="stream_fail" sheetId="28" r:id="rId26"/>
+    <sheet name="P2P_status" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="187">
   <si>
     <t>规则</t>
   </si>
@@ -235,6 +246,9 @@
     <t>push_RecordMsg:.*] #### event_time</t>
   </si>
   <si>
+    <t>AS_HttpPushMsg.*push:</t>
+  </si>
+  <si>
     <t>zx_packup_power_performance:.*] - camera_0, SN:T8210P</t>
   </si>
   <si>
@@ -322,16 +336,277 @@
     <t>7.停止录像原因</t>
   </si>
   <si>
+    <t>Cam3_sdkMsgHandle.*ES_COMMON_TYPE_PIR_TRIGGER|Cam3_sdkMsgHandle.*COMMON_TYPE_PUSH_MDETECT_MSG|camera_.*AI_DECT_MSG.*status|Camera_update_arm_mode</t>
+  </si>
+  <si>
+    <t>8.触发原因</t>
+  </si>
+  <si>
     <t>Baize_StrategyModEntry.*camera_.*record_time</t>
   </si>
   <si>
     <t>录像时长统计</t>
+  </si>
+  <si>
+    <t>eufy_update_dsp_callback.*camera_.*upgradeState\.errCode：[^0]</t>
+  </si>
+  <si>
+    <t>失败次数</t>
+  </si>
+  <si>
+    <t>eufy_update_dsp_callback.*camera_.*upgradeState\.errCode：0</t>
+  </si>
+  <si>
+    <t>成功次数</t>
+  </si>
+  <si>
+    <t>eufy_update_dsp_callback.*camera_.*upgradeState.errCode.*</t>
+  </si>
+  <si>
+    <t>总结果</t>
+  </si>
+  <si>
+    <t>zx_dev_ota_process.*OTA to.*Fail</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>zx_get_all_upgrade_version_info.*get ota_pakage upgrade version info start.*</t>
+  </si>
+  <si>
+    <t>1.开始检测</t>
+  </si>
+  <si>
+    <t>zx_system_update_eufy2.*get.*ok</t>
+  </si>
+  <si>
+    <t>2.有检测包</t>
+  </si>
+  <si>
+    <t>zx_dev_ota_process.*ota_packet:.*ota_ver=.*filename=.*</t>
+  </si>
+  <si>
+    <t>3.检测到OTA包细节</t>
+  </si>
+  <si>
+    <t>zx_dev_ota_process.*zyy detect ver will up.*</t>
+  </si>
+  <si>
+    <t>4.准备检测版本</t>
+  </si>
+  <si>
+    <t>zx_dev_ota_process.*save_path.*tar\.gz</t>
+  </si>
+  <si>
+    <t>5.包存储地址</t>
+  </si>
+  <si>
+    <t>zx_dnload_upgrade_version.*upgrade file start</t>
+  </si>
+  <si>
+    <t>6.开始下载</t>
+  </si>
+  <si>
+    <t>zx_dnload_upgrade_version.*Compare file size is ok</t>
+  </si>
+  <si>
+    <t>7.包大小比对完成</t>
+  </si>
+  <si>
+    <t>zx_dnload_upgrade_version.*Compare file md5 is ok</t>
+  </si>
+  <si>
+    <t>8.包MD5比对完成</t>
+  </si>
+  <si>
+    <t>zx_dnload_upgrade_version.*down upgrade file finished</t>
+  </si>
+  <si>
+    <t>9.下载结束</t>
+  </si>
+  <si>
+    <t>zx_send_dev_command.*command_type.*SUB1G_CMD_WAKEUP.*</t>
+  </si>
+  <si>
+    <t>10.唤醒设备</t>
+  </si>
+  <si>
+    <t>zx_wifi_send_command.*camera_[0-9]+, SUB1G_CMD_WAKEUP, success</t>
+  </si>
+  <si>
+    <t>11.唤醒成功</t>
+  </si>
+  <si>
+    <t>zx_upload_devs_params.*device_sn.*key:1134=\[1\]</t>
+  </si>
+  <si>
+    <t>12.通知APP开始升级</t>
+  </si>
+  <si>
+    <t>zx_update_xmdsp.*camera_.*firmwaretype=</t>
+  </si>
+  <si>
+    <t>13.开始下包</t>
+  </si>
+  <si>
+    <t>zx_update_xmdsp:.*] wait update end</t>
+  </si>
+  <si>
+    <t>14.等待下包结束</t>
+  </si>
+  <si>
+    <t>zx_wait_channel_ready.*camera_0 update_result</t>
+  </si>
+  <si>
+    <t>15.返回码</t>
+  </si>
+  <si>
+    <t>zx_dev_ota_process.*camera_0, zx_update_xmdsp, ret</t>
+  </si>
+  <si>
+    <t>16.下包返回码</t>
+  </si>
+  <si>
+    <t>zx_send_dev_command.*SUB1G_CMD_GET_3518_VERSION</t>
+  </si>
+  <si>
+    <t>17.获取版本号</t>
+  </si>
+  <si>
+    <t>zx_wifi_send_command.*camera_.*XR871.*3518 kernel.*mcu</t>
+  </si>
+  <si>
+    <t>18.拿到版本号</t>
+  </si>
+  <si>
+    <t>zx_wifi_send_command.*SUB1G_CMD_GET_3518_VERSION, success</t>
+  </si>
+  <si>
+    <t>19.获取版本号成功</t>
+  </si>
+  <si>
+    <t>zx_update_devs_version.*main_sw.*sec_sw.*</t>
+  </si>
+  <si>
+    <t>20.更新版本号</t>
+  </si>
+  <si>
+    <t>zx_upload_devs_params.*key:1134=\[0\]</t>
+  </si>
+  <si>
+    <t>21.通知APP升级结束</t>
+  </si>
+  <si>
+    <t>DEV_CmdBypass</t>
+  </si>
+  <si>
+    <t>parse_homebase_js_cmd.*camera_.*APP_CMD_START_REALTIME_MEDIA</t>
+  </si>
+  <si>
+    <t>P2P开流指令</t>
+  </si>
+  <si>
+    <t>EUFYSDK_open_camera.*EufySdk_SetCameraPower on</t>
+  </si>
+  <si>
+    <t>唤醒设备</t>
+  </si>
+  <si>
+    <t>P2P_CommandRead.*APP_CMD_START_REALTIME_MEDIA.*ret</t>
+  </si>
+  <si>
+    <t>开流结果</t>
+  </si>
+  <si>
+    <t>P2P_CommandRead.*APP_CMD_STOP_REALTIME_MEDIA</t>
+  </si>
+  <si>
+    <t>P2P关流指令</t>
+  </si>
+  <si>
+    <t>P2P_CommandRead.*session_id.*APP_CMD_STOP_REALTIME_MEDIA.*ret</t>
+  </si>
+  <si>
+    <t>P2P关流指令结果</t>
+  </si>
+  <si>
+    <t>EUFYSDK_close_camera.*camera_.*EufySdk close camera</t>
+  </si>
+  <si>
+    <t>关闭设备</t>
+  </si>
+  <si>
+    <t>1.doorsensor.c:Doorsensor_sub1gMsgHandle.*doorsensor_</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>2.push door event msg.</t>
+  </si>
+  <si>
+    <t>开始push</t>
+  </si>
+  <si>
+    <t>bind new_account|face_recognition|homebasee AI recognition=|bindhub|BIND_PUSHKEY_BS2|BIND_DEV_REQ</t>
+  </si>
+  <si>
+    <t>1.绑定与人脸协议的流水</t>
+  </si>
+  <si>
+    <t>camera_.*batteryCapacity=.*temperature=</t>
+  </si>
+  <si>
+    <t>1.电池温度等</t>
+  </si>
+  <si>
+    <t>Strategy_CheckAllModuleStreamByTime</t>
+  </si>
+  <si>
+    <t>1.策略有效性检查</t>
+  </si>
+  <si>
+    <t>camera_.*AI_DECT_MSG.*status|Storage_CreateRecordFile|AI_cam_detect_event|ai_conf.c|Strategy_CheckAllModuleStreamByTime|delete file|Cam3_sdkMsgHandle|Strategy_UpdateStreamEventTime</t>
+  </si>
+  <si>
+    <t>2.AI有效等综合检查</t>
+  </si>
+  <si>
+    <t>camera_.*AI_DECT_MSG.*status|Storage_CreateRecordFile|AI_cam_detect_event|ai_conf.c|Strategy_CheckAllModuleStreamByTime|delete file|Cam3_sdkMsgHandle|Strategy_UpdateStreamEventTime|(Camera.*record stopping)|(Camera.*start record.)|(Camera.*get I frame.)|(linkage_interface)|(Dmc_CreateDmc success, module)|(common_pir_strategy)|(P2P_OpenStream)|(Strategy_UpdateFirstVideoTime)|(PLA_VideoTimeCalibrationStart)</t>
+  </si>
+  <si>
+    <t>1.录像时间线</t>
+  </si>
+  <si>
+    <t>(P2P_EVENT_DISCONNECT)|(P2P_ClearP2pConnectInfo)|(APP_CMD_START_REALTIME_MEDIA)|(P2P_listen.*Local  Lan Addr)</t>
+  </si>
+  <si>
+    <t>1.开流</t>
+  </si>
+  <si>
+    <t>(P2P_EVENT_DISCONNECT)|(P2P_ClearP2pConnectInfo)|(P2P_listen.*Local  Lan Addr)</t>
+  </si>
+  <si>
+    <t>1.全局状态</t>
+  </si>
+  <si>
+    <t>P2P_ClearP2pConnectInfo</t>
+  </si>
+  <si>
+    <t>2.清除P2P信息</t>
+  </si>
+  <si>
+    <t>P2P_listen.*Local  Lan Addr</t>
+  </si>
+  <si>
+    <t>3.P2P连接信息</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -344,34 +619,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,14 +635,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,6 +674,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,7 +739,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,55 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,31 +799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +835,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,7 +859,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,6 +943,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -691,21 +966,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,6 +998,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,154 +1071,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -960,52 +1238,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1343,7 +1621,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1351,7 +1629,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1359,7 +1637,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1367,7 +1645,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1462,15 +1740,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1507,10 +1785,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1547,18 +1825,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1873,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1891,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1635,10 +1913,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1928,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1675,66 +1953,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" ht="43.2" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +2035,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1771,10 +2057,309 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="64.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="86.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +2374,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1824,7 +2409,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1832,7 +2417,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1840,7 +2425,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1848,7 +2433,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1901,7 +2486,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
@@ -1919,6 +2504,391 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="68.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="60.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="109.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="44.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" ht="86.4" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="24.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1929,7 +2899,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1988,7 +2958,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -2226,7 +3196,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2257,10 +3227,10 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2271,13 +3241,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="60.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
@@ -2308,6 +3278,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
